--- a/assets/Template/ReportTemplate.xlsx
+++ b/assets/Template/ReportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/masaki_kumamoto_uipath_com/Documents/Documents/UiPath/04_Templates/DUET/assets/Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\UiPath\DocumentUnderstandingEvaluation_Windows_CJK_EL_Clova\assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{1831B90B-3A3E-4F89-94DA-EDDB8AC42814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3FA590-0A52-4F94-BDE0-B271258574E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2090826-3A71-4EDA-9F7A-FC14060EDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16155" yWindow="-18360" windowWidth="29265" windowHeight="20295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -152,18 +152,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,8 +171,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,10 +216,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -223,8 +229,8 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -329,13 +335,13 @@
     <tableColumn id="15" xr3:uid="{C9B1AEDF-5F45-41DC-9329-5698D1AE635E}" name="Boolean_Correct">
       <calculatedColumnFormula>COUNTIFS(INDIRECT(Summary[[#This Row],[TableName]] &amp; "[FieldType]"),Q$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{34CBF333-76E0-4A1E-A766-22839DDE37C8}" name="Boolean_Accuracy" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{34CBF333-76E0-4A1E-A766-22839DDE37C8}" name="Boolean_Accuracy">
       <calculatedColumnFormula>Summary[[#This Row],[Boolean_Correct]]/Summary[[#This Row],[Boolean_Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{0D80A7E4-626E-454E-9356-D73F1C9FFF99}" name="Others_Accuracy" dataCellStyle="Percent">
+    <tableColumn id="21" xr3:uid="{0D80A7E4-626E-454E-9356-D73F1C9FFF99}" name="Others_Accuracy">
       <calculatedColumnFormula>SUM(Summary[[#This Row],[Text_Correct]],Summary[[#This Row],[Number_Correct]],Summary[[#This Row],[Date_Correct]],Summary[[#This Row],[Name_Correct]],Summary[[#This Row],[Address_Correct]],Summary[[#This Row],[Set_Correct]],#REF!,#REF!)/SUM(Summary[[#This Row],[Text_Total]],Summary[[#This Row],[Number_Total]],Summary[[#This Row],[Date_Total]],Summary[[#This Row],[Name_Total]],Summary[[#This Row],[Address_Total]],Summary[[#This Row],[Set_Total]],,#REF!,#REF!,Summary[[#This Row],[Boolean_Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3CE65A5D-B36D-4D4F-B678-F9305F990802}" name="Total_Accuracy" dataCellStyle="Percent">
+    <tableColumn id="22" xr3:uid="{3CE65A5D-B36D-4D4F-B678-F9305F990802}" name="Total_Accuracy">
       <calculatedColumnFormula>SUM(Summary[[#This Row],[Text_Correct]],Summary[[#This Row],[Number_Correct]],Summary[[#This Row],[Date_Correct]],Summary[[#This Row],[Name_Correct]],Summary[[#This Row],[Address_Correct]],Summary[[#This Row],[Set_Correct]],Summary[[#This Row],[Boolean_Correct]],#REF!,#REF!)/SUM(Summary[[#This Row],[Text_Total]],Summary[[#This Row],[Number_Total]],Summary[[#This Row],[Date_Total]],Summary[[#This Row],[Name_Total]],Summary[[#This Row],[Address_Total]],Summary[[#This Row],[Set_Total]],Summary[[#This Row],[Boolean_Total]],#REF!,#REF!,Summary[[#This Row],[Boolean_Accuracy]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -613,17 +619,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="17" width="9.28515625" customWidth="1"/>
-    <col min="18" max="20" width="17.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" customWidth="1"/>
+    <col min="4" max="17" width="9.296875" customWidth="1"/>
+    <col min="18" max="20" width="17.3984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -667,69 +673,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B4" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="R4:T4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -776,29 +783,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L3"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.296875" customWidth="1"/>
+    <col min="2" max="2" width="45.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+    <col min="4" max="5" width="14.296875" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="37.3984375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" customWidth="1"/>
+    <col min="10" max="10" width="37.3984375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.296875" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,10 +822,10 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -833,20 +844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F1:G1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
